--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\CropTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{41501DEF-FD9D-4272-8E36-B3E614F69D83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3CD4F89F-30AC-4991-8492-6F3341D95FB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{70B9A291-AFE2-4CDC-9166-9864742E8141}"/>
   </bookViews>
@@ -102,15 +102,9 @@
     <t>Split schematic in 2-4 pages</t>
   </si>
   <si>
-    <t>Change the schematic symbol for devices so gnd is on the bottom</t>
-  </si>
-  <si>
     <t>Add description: USB Peripheral Port</t>
   </si>
   <si>
-    <t>Delete test point nets, replace with TP symbols</t>
-  </si>
-  <si>
     <t>Delete all but 2 LEDs and BTNs</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>Move test points to solder pads, not headers</t>
+  </si>
+  <si>
+    <t>Change the schematic symbol for devices so gnd isn't on the bottom</t>
+  </si>
+  <si>
+    <t>TP symbols</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FF85EC-9943-47C2-93F0-09FCBDCCE958}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -802,12 +802,12 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -815,15 +815,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -839,15 +839,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -863,31 +863,31 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -903,39 +903,39 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -943,79 +943,79 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -1047,15 +1047,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -1063,32 +1063,32 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,12 +1098,12 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\CropTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3CD4F89F-30AC-4991-8492-6F3341D95FB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CAD9E063-81D3-47B2-A90E-AD04A3F4F393}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{70B9A291-AFE2-4CDC-9166-9864742E8141}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>Status</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Addition/Modification To Schematic Sheet</t>
   </si>
   <si>
-    <t>Annotate part numbers</t>
-  </si>
-  <si>
     <t>Make unique buffer symbol</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Move pickkit down by USB and terminal block</t>
   </si>
   <si>
-    <t>Check oscillator tuning and temperature drift</t>
-  </si>
-  <si>
     <t>EDS protection on terminal block</t>
   </si>
   <si>
@@ -223,6 +217,21 @@
   </si>
   <si>
     <t>TP symbols</t>
+  </si>
+  <si>
+    <t>Sets of caps for ADC</t>
+  </si>
+  <si>
+    <t>Replace both buffers with new symbol</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Change XO</t>
+  </si>
+  <si>
+    <t>Change USB to 5V</t>
   </si>
 </sst>
 </file>
@@ -592,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FF85EC-9943-47C2-93F0-09FCBDCCE958}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -741,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -749,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -757,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -765,15 +774,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -781,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -789,15 +798,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -805,15 +817,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -821,23 +836,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -845,20 +863,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +911,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -898,7 +919,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +959,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -997,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -1005,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -1013,172 +1034,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
